--- a/Plan1.xlsx
+++ b/Plan1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\CTS\RemedyJF3_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95723E08-00F7-42DD-8CC6-BA05FC8A94D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE445EA-D76D-4210-9099-A25BA5E3EBE0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{22AD9D60-EB7E-4A23-9A1A-806223D0E88A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
   <si>
     <t>Associate ID</t>
   </si>
@@ -94,6 +94,18 @@
   </si>
   <si>
     <t>Bootstrap</t>
+  </si>
+  <si>
+    <t>spring core</t>
+  </si>
+  <si>
+    <t>maven</t>
+  </si>
+  <si>
+    <t>junit</t>
+  </si>
+  <si>
+    <t>Spring MVC</t>
   </si>
 </sst>
 </file>
@@ -579,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39388AA6-FE71-4F29-BB1D-18D0C88FE87B}">
-  <dimension ref="A2:E14"/>
+  <dimension ref="A2:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="42.5546875" defaultRowHeight="14.4"/>
@@ -590,10 +602,12 @@
     <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="15" thickBot="1"/>
-    <row r="3" spans="1:5" ht="15" thickBot="1">
+    <row r="2" spans="1:6" ht="15" thickBot="1"/>
+    <row r="3" spans="1:6" ht="15" thickBot="1">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -604,7 +618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1">
+    <row r="4" spans="1:6" ht="15" thickBot="1">
       <c r="A4" s="7">
         <v>912820</v>
       </c>
@@ -620,8 +634,11 @@
       <c r="E4" s="11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1">
+      <c r="F4" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" thickBot="1">
       <c r="A5" s="7">
         <v>912574</v>
       </c>
@@ -635,7 +652,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1">
+    <row r="6" spans="1:6" ht="15" thickBot="1">
       <c r="A6" s="7">
         <v>912763</v>
       </c>
@@ -649,7 +666,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" thickBot="1">
+    <row r="7" spans="1:6" ht="15" thickBot="1">
       <c r="A7" s="3">
         <v>912766</v>
       </c>
@@ -665,8 +682,11 @@
       <c r="E7" s="12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" thickBot="1">
+      <c r="F7" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" thickBot="1">
       <c r="A8" s="3">
         <v>912768</v>
       </c>
@@ -680,7 +700,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1">
+    <row r="9" spans="1:6" ht="15" thickBot="1">
       <c r="A9" s="5">
         <v>908381</v>
       </c>
@@ -694,7 +714,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" thickBot="1">
+    <row r="10" spans="1:6" ht="15" thickBot="1">
       <c r="A10" s="9">
         <v>908058</v>
       </c>
@@ -710,8 +730,11 @@
       <c r="E10" s="13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="15" thickBot="1">
+      <c r="F10" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" thickBot="1">
       <c r="A11" s="9">
         <v>908036</v>
       </c>
@@ -725,7 +748,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" thickBot="1">
+    <row r="12" spans="1:6" ht="15" thickBot="1">
       <c r="A12" s="9">
         <v>908372</v>
       </c>
@@ -739,7 +762,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1">
+    <row r="13" spans="1:6" ht="15" thickBot="1">
       <c r="A13" s="5">
         <v>908217</v>
       </c>
@@ -755,8 +778,11 @@
       <c r="E13" s="14" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="15" thickBot="1">
+      <c r="F13" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" thickBot="1">
       <c r="A14" s="5">
         <v>908238</v>
       </c>

--- a/Plan1.xlsx
+++ b/Plan1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\CTS\RemedyJF3_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE445EA-D76D-4210-9099-A25BA5E3EBE0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CB8C9F-E812-4AFE-A56A-5B571488F2EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{22AD9D60-EB7E-4A23-9A1A-806223D0E88A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="62">
   <si>
     <t>Associate ID</t>
   </si>
@@ -106,13 +106,122 @@
   </si>
   <si>
     <t>Spring MVC</t>
+  </si>
+  <si>
+    <t>Logging</t>
+  </si>
+  <si>
+    <t>JPA</t>
+  </si>
+  <si>
+    <t>Logging, and Continuous Code Quality</t>
+  </si>
+  <si>
+    <t>SLF4J, Lombok</t>
+  </si>
+  <si>
+    <t>SLF4J vs. Log4J vs. Lombok</t>
+  </si>
+  <si>
+    <t>SLF4J - Env Setup, Sample Logging</t>
+  </si>
+  <si>
+    <t>SLF4j - error messages, warning levels, parameterized logging, different appenders</t>
+  </si>
+  <si>
+    <t>Lombok - Configuring Project using Lombok</t>
+  </si>
+  <si>
+    <t>Logging using Lombok annotations</t>
+  </si>
+  <si>
+    <t>Continuous Code Quality using SONAR</t>
+  </si>
+  <si>
+    <t>Clean as you code - SONAR Intro, benefits</t>
+  </si>
+  <si>
+    <t>Using SonarQube with Maven - Update connect URLs, Proxies in POM</t>
+  </si>
+  <si>
+    <t>Sonar architecture - how it works? SonarQube client and Server, Sonar Database</t>
+  </si>
+  <si>
+    <t>Running Maven Sonar Goals for Static Code Analysis</t>
+  </si>
+  <si>
+    <t>Use SonarQube to find the following:
+Finding Duplicate Code, Cyclomatic Complexity, Sphagetti Design, Lack of Unit Tests, Improper Coding Standards, Potential Bugs, Insufficient Comments</t>
+  </si>
+  <si>
+    <t>Interpreting Sonar Logs</t>
+  </si>
+  <si>
+    <t>JPA, Hibernate, Spring Data Access JPA with Spring Boot</t>
+  </si>
+  <si>
+    <t>ORM Basics</t>
+  </si>
+  <si>
+    <t>ORM (Object-Relational Mapping), makes it easier to develop code that interacts with database, abstracts the database system, transactionality</t>
+  </si>
+  <si>
+    <t>Evolution of ORM solutions, Hibernate XML Configuration, Hibernate Annotation Configuration, Spring Data JPA, Hibernate benefits, open source, light weight, database independent query</t>
+  </si>
+  <si>
+    <t>Hibernate Basics</t>
+  </si>
+  <si>
+    <t>Session Factory, Session, Transaction Factory, Transaction, Connection Provider</t>
+  </si>
+  <si>
+    <t>ORM implementation with Hibernate XML Configuration and Annotation Configuration</t>
+  </si>
+  <si>
+    <t>XML Configuration - persistence class, mapping xml, configuration xml, loading hibernate configuration xml file
+Annotation Configuration - persistence class, @Entity, @Table, @Id, @Column, hibernate configuration xml file
+Loading hibernate configuration and interacting with database
+get the session factory, open session, begin transaction, commit transaction, close session</t>
+  </si>
+  <si>
+    <t>JPA (Java Persistence API), JPA is a specification (JSR 338), JPA does not have implementation, Hibernate is one of the implementation for JPA, Hibernate is a ORM tool, Spring Data JPA is an abstraction above Hibernate to remove boiler plate code when persisting data using Hibernate.</t>
+  </si>
+  <si>
+    <t>Mapping, Persisting objects into database, Detatched Objects</t>
+  </si>
+  <si>
+    <t>Hibernate log configuration and ddl-auto configuration, JpaRepsitory.findById(), defining Query Methods, JpaRespository.save(), JpaRepository.deleteById()</t>
+  </si>
+  <si>
+    <t>Query Methods - Search by containing text, sorting, filter with starting text, fetch between dates, greater than or  lesser than, top</t>
+  </si>
+  <si>
+    <t>@ManyToOne, @JoinColumn, @OneToMany, FetchType.EAGER, FetchType.LAZY, @ManyToMany, @JoinTable, mappedBy</t>
+  </si>
+  <si>
+    <t>HQL</t>
+  </si>
+  <si>
+    <t>HQL stands for Hibernate Query Language, JPQL stands for Java Persistence Query Language, Compare HQL and JPQL, @Query annotation, HQL fetch keyword, aggregate functions in HQL, Native Query, nativeQuery attribute</t>
+  </si>
+  <si>
+    <t>Criteria</t>
+  </si>
+  <si>
+    <t>Scenarios where Criteria Query helps, CriteriaBuilder, Criteria Query, Root, TypedQuery</t>
+  </si>
+  <si>
+    <t>Spring REST</t>
+  </si>
+  <si>
+    <t>testing REST and Spring Security</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,8 +245,26 @@
       <color rgb="FF000000"/>
       <name val="Inherit"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -168,8 +295,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -229,11 +362,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -276,6 +424,27 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -591,10 +760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39388AA6-FE71-4F29-BB1D-18D0C88FE87B}">
-  <dimension ref="A2:F14"/>
+  <dimension ref="A2:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="42.5546875" defaultRowHeight="14.4"/>
@@ -606,8 +775,8 @@
     <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="15" thickBot="1"/>
-    <row r="3" spans="1:6" ht="15" thickBot="1">
+    <row r="2" spans="1:8" ht="15" thickBot="1"/>
+    <row r="3" spans="1:8" ht="15" thickBot="1">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -618,7 +787,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1">
+    <row r="4" spans="1:8" ht="15" thickBot="1">
       <c r="A4" s="7">
         <v>912820</v>
       </c>
@@ -637,8 +806,11 @@
       <c r="F4" s="11" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1">
+      <c r="G4" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" thickBot="1">
       <c r="A5" s="7">
         <v>912574</v>
       </c>
@@ -652,7 +824,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1">
+    <row r="6" spans="1:8" ht="15" thickBot="1">
       <c r="A6" s="7">
         <v>912763</v>
       </c>
@@ -666,7 +838,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1">
+    <row r="7" spans="1:8" ht="15" thickBot="1">
       <c r="A7" s="3">
         <v>912766</v>
       </c>
@@ -685,8 +857,12 @@
       <c r="F7" s="12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1">
+      <c r="G7" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="20"/>
+    </row>
+    <row r="8" spans="1:8" ht="15" thickBot="1">
       <c r="A8" s="3">
         <v>912768</v>
       </c>
@@ -699,8 +875,10 @@
       <c r="D8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="15" thickBot="1">
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+    </row>
+    <row r="9" spans="1:8" ht="15" thickBot="1">
       <c r="A9" s="5">
         <v>908381</v>
       </c>
@@ -713,8 +891,9 @@
       <c r="D9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1">
+      <c r="G9" s="20"/>
+    </row>
+    <row r="10" spans="1:8" ht="15" thickBot="1">
       <c r="A10" s="9">
         <v>908058</v>
       </c>
@@ -733,8 +912,11 @@
       <c r="F10" s="13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1">
+      <c r="G10" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" thickBot="1">
       <c r="A11" s="9">
         <v>908036</v>
       </c>
@@ -748,7 +930,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1">
+    <row r="12" spans="1:8" ht="15" thickBot="1">
       <c r="A12" s="9">
         <v>908372</v>
       </c>
@@ -762,7 +944,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1">
+    <row r="13" spans="1:8" ht="15" thickBot="1">
       <c r="A13" s="5">
         <v>908217</v>
       </c>
@@ -781,8 +963,11 @@
       <c r="F13" s="14" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="15" thickBot="1">
+      <c r="G13" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" thickBot="1">
       <c r="A14" s="5">
         <v>908238</v>
       </c>
@@ -797,7 +982,191 @@
       </c>
       <c r="E14" s="14"/>
     </row>
+    <row r="17" spans="1:6" ht="41.4">
+      <c r="A17" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="41.4">
+      <c r="A18" s="15"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="110.4">
+      <c r="A19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="55.2">
+      <c r="A20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="41.4">
+      <c r="A21" s="15"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="41.4">
+      <c r="A22" s="15"/>
+      <c r="B22" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="96.6">
+      <c r="A23" s="15"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="96.6">
+      <c r="A24" s="15"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="69">
+      <c r="A25" s="15"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="262.2">
+      <c r="A26" s="15"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="27.6">
+      <c r="A27" s="15"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="193.2">
+      <c r="A28" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="248.4">
+      <c r="A29" s="19"/>
+      <c r="B29" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="110.4">
+      <c r="A30" s="19"/>
+      <c r="B30" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="409.6">
+      <c r="A31" s="19"/>
+      <c r="B31" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="331.2">
+      <c r="A32" s="19"/>
+      <c r="B32" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="179.4">
+      <c r="A33" s="19"/>
+      <c r="B33" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="151.80000000000001">
+      <c r="A34" s="19"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="179.4">
+      <c r="A35" s="19"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="289.8">
+      <c r="A36" s="19"/>
+      <c r="B36" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="96.6">
+      <c r="A37" s="19"/>
+      <c r="B37" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A17:A27"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="A28:A37"/>
+    <mergeCell ref="B33:B35"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Plan1.xlsx
+++ b/Plan1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\CTS\RemedyJF3_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CB8C9F-E812-4AFE-A56A-5B571488F2EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B42DD5-0268-4E01-97FB-7E4392D3E319}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{22AD9D60-EB7E-4A23-9A1A-806223D0E88A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="66">
   <si>
     <t>Associate ID</t>
   </si>
@@ -215,6 +215,18 @@
   </si>
   <si>
     <t>testing REST and Spring Security</t>
+  </si>
+  <si>
+    <t>Design Principles</t>
+  </si>
+  <si>
+    <t>Datastructures &amp; Algorithms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microservices </t>
+  </si>
+  <si>
+    <t>Spring Cloud</t>
   </si>
 </sst>
 </file>
@@ -425,23 +437,23 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -762,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39388AA6-FE71-4F29-BB1D-18D0C88FE87B}">
   <dimension ref="A2:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="42.5546875" defaultRowHeight="14.4"/>
@@ -809,6 +821,9 @@
       <c r="G4" s="11" t="s">
         <v>27</v>
       </c>
+      <c r="H4" s="11" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="15" thickBot="1">
       <c r="A5" s="7">
@@ -857,10 +872,12 @@
       <c r="F7" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="20"/>
+      <c r="H7" s="16" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1">
       <c r="A8" s="3">
@@ -875,8 +892,8 @@
       <c r="D8" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1">
       <c r="A9" s="5">
@@ -891,7 +908,7 @@
       <c r="D9" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="20"/>
+      <c r="G9" s="16"/>
     </row>
     <row r="10" spans="1:8" ht="15" thickBot="1">
       <c r="A10" s="9">
@@ -915,6 +932,9 @@
       <c r="G10" s="13" t="s">
         <v>60</v>
       </c>
+      <c r="H10" s="13" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1">
       <c r="A11" s="9">
@@ -966,6 +986,9 @@
       <c r="G13" s="14" t="s">
         <v>61</v>
       </c>
+      <c r="H13" s="14" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="15" thickBot="1">
       <c r="A14" s="5">
@@ -983,50 +1006,50 @@
       <c r="E14" s="14"/>
     </row>
     <row r="17" spans="1:6" ht="41.4">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="15" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="41.4">
-      <c r="A18" s="15"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="17" t="s">
+      <c r="A18" s="17"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="15" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="110.4">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="17" t="s">
+      <c r="A19" s="17"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="15" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="55.2">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17" t="s">
+      <c r="A20" s="17"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="15" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="41.4">
-      <c r="A21" s="15"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="17" t="s">
+      <c r="A21" s="17"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="41.4">
-      <c r="A22" s="15"/>
-      <c r="B22" s="18" t="s">
+      <c r="A22" s="17"/>
+      <c r="B22" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="15" t="s">
         <v>37</v>
       </c>
       <c r="F22" t="s">
@@ -1034,9 +1057,9 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="96.6">
-      <c r="A23" s="15"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="17" t="s">
+      <c r="A23" s="17"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="15" t="s">
         <v>38</v>
       </c>
       <c r="F23" t="s">
@@ -1044,118 +1067,118 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="96.6">
-      <c r="A24" s="15"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="17" t="s">
+      <c r="A24" s="17"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="15" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="69">
-      <c r="A25" s="15"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="17" t="s">
+      <c r="A25" s="17"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="15" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="262.2">
-      <c r="A26" s="15"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="17" t="s">
+      <c r="A26" s="17"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="15" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="27.6">
-      <c r="A27" s="15"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="17" t="s">
+      <c r="A27" s="17"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="15" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="193.2">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="15" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="248.4">
-      <c r="A29" s="19"/>
-      <c r="B29" s="20" t="s">
+      <c r="A29" s="20"/>
+      <c r="B29" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="15" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="110.4">
-      <c r="A30" s="19"/>
-      <c r="B30" s="20" t="s">
+      <c r="A30" s="20"/>
+      <c r="B30" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="15" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="409.6">
-      <c r="A31" s="19"/>
-      <c r="B31" s="20" t="s">
+      <c r="A31" s="20"/>
+      <c r="B31" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="15" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="331.2">
-      <c r="A32" s="19"/>
-      <c r="B32" s="20" t="s">
+      <c r="A32" s="20"/>
+      <c r="B32" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="15" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="179.4">
-      <c r="A33" s="19"/>
+      <c r="A33" s="20"/>
       <c r="B33" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="15" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="151.80000000000001">
-      <c r="A34" s="19"/>
+      <c r="A34" s="20"/>
       <c r="B34" s="21"/>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="15" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="179.4">
-      <c r="A35" s="19"/>
+      <c r="A35" s="20"/>
       <c r="B35" s="21"/>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="15" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="289.8">
-      <c r="A36" s="19"/>
-      <c r="B36" s="20" t="s">
+      <c r="A36" s="20"/>
+      <c r="B36" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="96.6">
-      <c r="A37" s="19"/>
-      <c r="B37" s="20" t="s">
+      <c r="A37" s="20"/>
+      <c r="B37" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="C37" s="15" t="s">
         <v>59</v>
       </c>
     </row>
